--- a/flows/SVOL_fund_flow_data.xlsx
+++ b/flows/SVOL_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B687"/>
+  <dimension ref="A1:B708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7305,6 +7305,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>2.2847</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>13.6722</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>3.38445</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>17.63435</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>3.40485</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>4.5494</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>18.893326</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>5.09805</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>3.4074</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>3.4044</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>-3.4095</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>4.5488</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>5.68375</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1.69935</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>19.24995</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
